--- a/contents/동물서바이벌/동물서바이벌_몬스터_엑셀.xlsx
+++ b/contents/동물서바이벌/동물서바이벌_몬스터_엑셀.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\동물서바이벌\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\wep_atens\contents\동물서바이벌\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3FC56C9-E1BD-446F-91B8-B81CBB31766F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEA46E3C-D3E6-442C-AB43-298C3A7AC4A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5325" yWindow="3540" windowWidth="17775" windowHeight="15435" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3480" yWindow="3465" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1.보스" sheetId="1" r:id="rId1"/>
-    <sheet name="2.일반몬스터" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId2"/>
+    <sheet name="2. 보스테이블" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'1.보스'!$A$1:$K$8</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'1.보스'!$A$1:$K$7</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,8 +29,50 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata">
+  <metadataTypes count="1">
+    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLRICHVALUE" count="3">
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="0"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="2"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <valueMetadata count="3">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+    <bk>
+      <rc t="1" v="1"/>
+    </bk>
+    <bk>
+      <rc t="1" v="2"/>
+    </bk>
+  </valueMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="60">
   <si>
     <t>설명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -192,7 +235,95 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>q</t>
+    <t>이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>종류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특능1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특능2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특능3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특능4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특능5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특능6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격유형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격주기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보상1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보상2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보상3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>넘버</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>껄렁한 중학생</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>등장스테이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 돌진</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -473,6 +604,80 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
+<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <global>
+    <keyFlags>
+      <key name="_Self">
+        <flag name="ExcludeFromFile" value="1"/>
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_DisplayString">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Flags">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Format">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_SubLabel">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Attribution">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Icon">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Display">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_CanonicalPropertyNames">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_ClassificationId">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+    </keyFlags>
+  </global>
+</rvTypesInfo>
+</file>
+
+<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="3">
+  <rv s="0">
+    <v>0</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>1</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>2</v>
+    <v>5</v>
+  </rv>
+</rvData>
+</file>
+
+<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
+  <s t="_localImage">
+    <k n="_rvRel:LocalImageIdentifier" t="i"/>
+    <k n="CalcOrigin" t="i"/>
+  </s>
+</rvStructures>
+</file>
+
+<file path=xl/richData/richValueRel.xml><?xml version="1.0" encoding="utf-8"?>
+<richValueRels xmlns="http://schemas.microsoft.com/office/spreadsheetml/2022/richvaluerel" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rel r:id="rId1"/>
+  <rel r:id="rId2"/>
+  <rel r:id="rId3"/>
+</richValueRels>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -736,10 +941,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M9"/>
+  <dimension ref="A1:M15"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14:F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -756,7 +961,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="5"/>
+      <c r="A1" s="5" t="s">
+        <v>58</v>
+      </c>
       <c r="B1" s="9" t="s">
         <v>0</v>
       </c>
@@ -930,39 +1137,218 @@
       <c r="K7" s="8"/>
       <c r="L7" s="8"/>
     </row>
-    <row r="8" spans="1:13" ht="140.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="8" t="s">
+    <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+    </row>
+    <row r="9" spans="1:13" ht="99.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="4"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+    </row>
+    <row r="10" spans="1:13" ht="99.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="11"/>
+      <c r="B10" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="8">
+        <v>8</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="8">
+        <v>2</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+    </row>
+    <row r="11" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="152.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+    </row>
+    <row r="13" spans="1:13" ht="125.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K13" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="L13" s="8"/>
+    </row>
+    <row r="14" spans="1:13" ht="138.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="L14" s="8"/>
+    </row>
+    <row r="15" spans="1:13" ht="152.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B15" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C15" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8" t="s">
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="J8" s="8" t="s">
+      <c r="J15" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-    </row>
-    <row r="9" spans="1:13" ht="99.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D9" s="2" t="s">
-        <v>37</v>
-      </c>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="13">
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="C13:F13"/>
     <mergeCell ref="B1:G1"/>
-    <mergeCell ref="C8:F8"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="C4:F4"/>
     <mergeCell ref="C5:F5"/>
@@ -980,13 +1366,317 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EC0A5D8-0442-48FE-9767-983553FD0BA6}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{328FD801-9E4C-4D87-847F-F1E5B0EEBC7E}">
+  <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="2" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="48.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" s="5"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" s="10"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" s="11"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="8">
+        <v>8</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="8">
+        <v>2</v>
+      </c>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="136.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="8"/>
+      <c r="B5" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="L5" s="8" t="e" vm="2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="126" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L6" s="8" t="e" vm="3">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:A3"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{877C5DC1-55D7-40CB-8A49-EBDC1D9C6EA3}">
+  <dimension ref="A1:R10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="15.125" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L2" t="s">
+        <v>42</v>
+      </c>
+      <c r="M2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>50</v>
+      </c>
+      <c r="R2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B10">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/contents/동물서바이벌/동물서바이벌_몬스터_엑셀.xlsx
+++ b/contents/동물서바이벌/동물서바이벌_몬스터_엑셀.xlsx
@@ -1,29 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\wep_atens\contents\동물서바이벌\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEA46E3C-D3E6-442C-AB43-298C3A7AC4A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D15BF4B-06E9-473C-836D-35469F63D108}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3480" yWindow="3465" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="20985" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1.보스" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="4" r:id="rId2"/>
-    <sheet name="2. 보스테이블" sheetId="3" r:id="rId3"/>
+    <sheet name="몬스터테이블" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'1.보스'!$A$1:$K$7</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -72,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="63">
   <si>
     <t>설명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -239,42 +250,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>종류</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>방어력</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>특능1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>특능2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>특능3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>특능4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>특능5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>특능6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공격유형</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>공격주기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -324,6 +303,53 @@
   </si>
   <si>
     <t>1. 돌진</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AKP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격속도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>종류
+0: 일반
+1: 엘리트
+2: 보스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격패턴1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격패턴2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격패턴3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터는 많을 필요가 없다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적은 몬스터를 시간대별로 수치를 변경해 제작한다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -394,7 +420,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -420,17 +446,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -943,7 +972,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C14" sqref="C14:F14"/>
     </sheetView>
   </sheetViews>
@@ -962,16 +991,16 @@
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B1" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
       <c r="H1" s="6"/>
       <c r="I1" s="6"/>
       <c r="J1" s="6"/>
@@ -980,7 +1009,7 @@
       <c r="M1" s="3"/>
     </row>
     <row r="2" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="9" t="s">
         <v>22</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -1004,7 +1033,7 @@
       <c r="L2" s="8"/>
     </row>
     <row r="3" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="11"/>
+      <c r="A3" s="10"/>
       <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
@@ -1066,12 +1095,12 @@
       <c r="B5" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
       <c r="G5" s="8"/>
       <c r="H5" s="8" t="s">
         <v>24</v>
@@ -1092,12 +1121,12 @@
       <c r="B6" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
       <c r="G6" s="8" t="s">
         <v>24</v>
       </c>
@@ -1120,12 +1149,12 @@
       <c r="B7" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
       <c r="G7" s="8"/>
       <c r="H7" s="8" t="s">
         <v>24</v>
@@ -1139,16 +1168,16 @@
     </row>
     <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B8" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
@@ -1156,7 +1185,7 @@
       <c r="L8" s="6"/>
     </row>
     <row r="9" spans="1:13" ht="99.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="9" t="s">
         <v>22</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -1180,7 +1209,7 @@
       <c r="L9" s="8"/>
     </row>
     <row r="10" spans="1:13" ht="99.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="11"/>
+      <c r="A10" s="10"/>
       <c r="B10" s="4" t="s">
         <v>2</v>
       </c>
@@ -1237,17 +1266,17 @@
     </row>
     <row r="12" spans="1:13" ht="152.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
       <c r="G12" s="8"/>
       <c r="H12" s="8"/>
       <c r="I12" s="8" t="s">
@@ -1266,12 +1295,12 @@
       <c r="B13" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
       <c r="G13" s="8" t="s">
         <v>24</v>
       </c>
@@ -1296,12 +1325,12 @@
       <c r="B14" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
       <c r="G14" s="8"/>
       <c r="H14" s="8" t="s">
         <v>24</v>
@@ -1322,12 +1351,12 @@
       <c r="B15" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
       <c r="I15" s="8" t="s">
@@ -1341,6 +1370,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C6:F6"/>
     <mergeCell ref="C14:F14"/>
     <mergeCell ref="C15:F15"/>
     <mergeCell ref="B8:G8"/>
@@ -1348,12 +1383,6 @@
     <mergeCell ref="C11:F11"/>
     <mergeCell ref="C12:F12"/>
     <mergeCell ref="C13:F13"/>
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="C7:F7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1404,7 +1433,7 @@
       <c r="L1" s="6"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="10"/>
+      <c r="A2" s="9"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4" t="s">
         <v>1</v>
@@ -1426,7 +1455,7 @@
       <c r="L2" s="8"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="11"/>
+      <c r="A3" s="10"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4" t="s">
         <v>2</v>
@@ -1495,7 +1524,7 @@
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
       <c r="H5" s="8" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="I5" s="8" t="s">
         <v>24</v>
@@ -1504,7 +1533,7 @@
         <v>33</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="L5" s="8" t="e" vm="2">
         <v>#VALUE!</v>
@@ -1551,10 +1580,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{877C5DC1-55D7-40CB-8A49-EBDC1D9C6EA3}">
-  <dimension ref="A1:R10"/>
+  <dimension ref="A1:N23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1:N1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1563,29 +1592,44 @@
     <col min="3" max="3" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" t="s">
         <v>52</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1" t="s">
         <v>56</v>
       </c>
-      <c r="C1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:14" ht="66" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C2" t="s">
         <v>37</v>
       </c>
-      <c r="D2" t="s">
-        <v>38</v>
+      <c r="D2" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="E2" t="s">
         <v>1</v>
@@ -1594,86 +1638,160 @@
         <v>2</v>
       </c>
       <c r="G2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" t="s">
         <v>39</v>
       </c>
-      <c r="H2" t="s">
-        <v>47</v>
-      </c>
       <c r="I2" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="J2" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="K2" t="s">
+        <v>60</v>
+      </c>
+      <c r="L2" t="s">
         <v>41</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>42</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>43</v>
       </c>
-      <c r="N2" t="s">
-        <v>44</v>
-      </c>
-      <c r="O2" t="s">
-        <v>45</v>
-      </c>
-      <c r="P2" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>50</v>
-      </c>
-      <c r="R2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="H3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
       <c r="B4">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>3</v>
+      </c>
       <c r="B5">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>4</v>
+      </c>
       <c r="B6">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>5</v>
+      </c>
       <c r="B7">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>6</v>
+      </c>
       <c r="B8">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>7</v>
+      </c>
       <c r="B9">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B10">
-        <v>4</v>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D22" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D23" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
